--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -57,9 +57,6 @@
     <t>Зона</t>
   </si>
   <si>
-    <t>Бр</t>
-  </si>
-  <si>
     <t>ШТ</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>ВС</t>
+  </si>
+  <si>
+    <t>БР</t>
   </si>
 </sst>
 </file>
@@ -600,16 +600,16 @@
         <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>34176</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -620,16 +620,16 @@
         <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>61914</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -640,16 +640,16 @@
         <v>463</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -660,16 +660,16 @@
         <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -680,16 +680,16 @@
         <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>396</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -700,16 +700,16 @@
         <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>58012</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -726,16 +726,16 @@
         <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -752,16 +752,16 @@
         <v>374</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -784,7 +784,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,50 +803,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
